--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail3 Features.xlsx
@@ -3904,7 +3904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3915,29 +3915,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3958,115 +3956,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4083,72 +4071,66 @@
         <v>4.826401912639191e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.063159043009185</v>
+        <v>3.073615467577588e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.393185774533265</v>
+        <v>6.837602828602027e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.073615467577588e-06</v>
+        <v>0.06593188556884849</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.837602828602027e-06</v>
+        <v>0.3331234190993418</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06593188556884849</v>
+        <v>0.1150897427811133</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3331234190993418</v>
+        <v>1.707051872180943</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1150897427811133</v>
+        <v>1.705309812257346</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.638395591747149</v>
+        <v>4.730812501299611</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.705309812257346</v>
+        <v>1.044333648552943e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.730812501299611</v>
+        <v>49436488.79671726</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.044333648552943e-14</v>
+        <v>2.280199217113412e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>49436488.79671726</v>
+        <v>25.52316373089053</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.280199217113412e-06</v>
+        <v>0.0001078174225989899</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>25.52316373089053</v>
+        <v>9.381477525965913</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001078174225989899</v>
+        <v>1.554234549726397</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.381477525965913</v>
+        <v>0.009489239997350889</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.554234549726397</v>
+        <v>3.574089977542659</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009489239997350889</v>
+        <v>0.9519968610683066</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.574089977542659</v>
+        <v>1.760209557047648</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9519968610683066</v>
+        <v>49</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.760209557047648</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3009042569590008</v>
       </c>
     </row>
@@ -4163,72 +4145,66 @@
         <v>4.017788294832285e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.150315925104751</v>
+        <v>2.27337100910068e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.952408538058054</v>
+        <v>6.862045993843772e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.27337100910068e-06</v>
+        <v>0.04417828067042831</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.862045993843772e-06</v>
+        <v>0.3130726833255499</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04417828067042831</v>
+        <v>0.09976782637943367</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3130726833255499</v>
+        <v>1.742023350172449</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09976782637943367</v>
+        <v>1.690290752992108</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.682663172046851</v>
+        <v>4.801694715298833</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.690290752992108</v>
+        <v>1.013728492474641e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.801694715298833</v>
+        <v>51908511.12317394</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.013728492474641e-14</v>
+        <v>2.200060074963953e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>51908511.12317394</v>
+        <v>27.31484861133399</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.200060074963953e-06</v>
+        <v>0.0001297470677519259</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>27.31484861133399</v>
+        <v>10.96977657247852</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001297470677519259</v>
+        <v>1.274795670481506</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.96977657247852</v>
+        <v>0.01561324289200177</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.274795670481506</v>
+        <v>3.375083957765715</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01561324289200177</v>
+        <v>0.9540891202117355</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.375083957765715</v>
+        <v>1.721170143485443</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9540891202117355</v>
+        <v>48</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.721170143485443</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3066064394240047</v>
       </c>
     </row>
@@ -4243,72 +4219,66 @@
         <v>3.658808208154365e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.6173857523571351</v>
+        <v>1.647455477707247e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.2894995543207179</v>
+        <v>6.873989815821836e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.647455477707247e-06</v>
+        <v>0.01806296953892092</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.873989815821836e-06</v>
+        <v>0.2671379407474131</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.01806296953892092</v>
+        <v>0.07153834905247677</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2671379407474131</v>
+        <v>1.746886434269057</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.07153834905247677</v>
+        <v>1.598466300107296</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.695144795656586</v>
+        <v>5.22637892655146</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.598466300107296</v>
+        <v>8.529263150789851e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.22637892655146</v>
+        <v>61346543.01741607</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>8.529263150789851e-15</v>
+        <v>1.861293972450267e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>61346543.01741607</v>
+        <v>32.09901478470647</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.861293972450267e-06</v>
+        <v>0.0001439724654536196</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>32.09901478470647</v>
+        <v>12.2583901896686</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001439724654536196</v>
+        <v>1.045636673588985</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.2583901896686</v>
+        <v>0.02163447316127538</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.045636673588985</v>
+        <v>2.998544643886652</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02163447316127538</v>
+        <v>0.9537801516869617</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.998544643886652</v>
+        <v>1.781923386296166</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9537801516869617</v>
+        <v>75</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.781923386296166</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3156656287878823</v>
       </c>
     </row>
@@ -4323,72 +4293,66 @@
         <v>3.60535680481112e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.5426446520107281</v>
+        <v>1.29499996005542e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5412513370665333</v>
+        <v>6.875988668324544e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.29499996005542e-06</v>
+        <v>-0.005997006211197114</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.875988668324544e-06</v>
+        <v>0.2091586391494877</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.005997006211197114</v>
+        <v>0.04369702794134422</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2091586391494877</v>
+        <v>1.836886606683254</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04369702794134422</v>
+        <v>1.774327335462334</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.803046296557867</v>
+        <v>4.212786124854673</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.774327335462334</v>
+        <v>7.067771683481443e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.212786124854673</v>
+        <v>72014216.96784857</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.067771683481443e-15</v>
+        <v>1.634442993223371e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>72014216.96784857</v>
+        <v>36.65379928444224</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.634442993223371e-06</v>
+        <v>0.0001733927477628504</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>36.65379928444224</v>
+        <v>11.05015526574767</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001733927477628504</v>
+        <v>1.221998231034864</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.05015526574767</v>
+        <v>0.02117228296309066</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.221998231034864</v>
+        <v>2.925867902474266</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02117228296309066</v>
+        <v>0.958250599279763</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.925867902474266</v>
+        <v>1.59957537363717</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.958250599279763</v>
+        <v>120</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.59957537363717</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3056212116432164</v>
       </c>
     </row>
@@ -4403,72 +4367,66 @@
         <v>3.708434693656215e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.6089912229701862</v>
+        <v>1.3367795565024e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.4406648078754243</v>
+        <v>6.870382785663638e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.3367795565024e-06</v>
+        <v>-0.02333999535873679</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.870382785663638e-06</v>
+        <v>0.1619338824974869</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02333999535873679</v>
+        <v>0.02672760152521788</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1619338824974869</v>
+        <v>1.868338520083144</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02672760152521788</v>
+        <v>1.918041805433471</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.845107747271916</v>
+        <v>4.417276874435821</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.918041805433471</v>
+        <v>3.045950087072327e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.417276874435821</v>
+        <v>163154623.9253524</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.045950087072327e-15</v>
+        <v>7.298901313903974e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>163154623.9253524</v>
+        <v>81.0814591110982</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.298901313903974e-07</v>
+        <v>0.0002033820193111078</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>81.0814591110982</v>
+        <v>11.19237063082699</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002033820193111078</v>
+        <v>1.375349185728534</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.19237063082699</v>
+        <v>0.02547749478690838</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.375349185728534</v>
+        <v>2.933493517122507</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02547749478690838</v>
+        <v>0.9603048982224578</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.933493517122507</v>
+        <v>1.520745628638462</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9603048982224578</v>
+        <v>125</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.520745628638462</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4853705948475043</v>
       </c>
     </row>
@@ -4483,72 +4441,66 @@
         <v>3.870810870454069e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.6514512123180295</v>
+        <v>1.377538921635932e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.4484911829117286</v>
+        <v>6.859228112812374e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.377538921635932e-06</v>
+        <v>-0.03459788623750477</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.859228112812374e-06</v>
+        <v>0.1299945281253378</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03459788623750477</v>
+        <v>0.01807665095256943</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1299945281253378</v>
+        <v>1.902078286049519</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01807665095256943</v>
+        <v>1.920344606705963</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.905502276324445</v>
+        <v>4.890721247360724</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.920344606705963</v>
+        <v>2.484770057262115e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.890721247360724</v>
+        <v>182157804.6257209</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.484770057262115e-15</v>
+        <v>6.55224710598504e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>182157804.6257209</v>
+        <v>82.44831264127498</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.55224710598504e-07</v>
+        <v>0.0002550594772393701</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>82.44831264127498</v>
+        <v>9.94925209216488</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002550594772393701</v>
+        <v>1.820130767463776</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.94925209216488</v>
+        <v>0.02524772989453154</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.820130767463776</v>
+        <v>3.03164388677971</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02524772989453154</v>
+        <v>0.9613026232725282</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.03164388677971</v>
+        <v>1.406844480261549</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9613026232725282</v>
+        <v>125</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.406844480261549</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.7628725017784993</v>
       </c>
     </row>
@@ -4563,72 +4515,66 @@
         <v>4.047233350598406e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.6551225963105161</v>
+        <v>1.416997148529702e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.5183369617849634</v>
+        <v>6.84389000695672e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.416997148529702e-06</v>
+        <v>-0.04239339005732663</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.84389000695672e-06</v>
+        <v>0.1065988064343453</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04239339005732663</v>
+        <v>0.01314855712662753</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1065988064343453</v>
+        <v>1.908439394392419</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01314855712662753</v>
+        <v>2.011963607819581</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.917914718532639</v>
+        <v>6.584962409160346</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.011963607819581</v>
+        <v>6.536280370264992e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>6.584962409160346</v>
+        <v>675260305.1276913</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.536280370264992e-16</v>
+        <v>1.777314568925859e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>675260305.1276913</v>
+        <v>298.0390113442387</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.777314568925859e-07</v>
+        <v>0.0001201348014644127</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>298.0390113442387</v>
+        <v>7.972581316768761</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001201348014644127</v>
+        <v>1.54989705631361</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.972581316768761</v>
+        <v>0.007636014600104431</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.54989705631361</v>
+        <v>3.839600306481361</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.007636014600104431</v>
+        <v>0.9620323243257958</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.839600306481361</v>
+        <v>1.37606106295939</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9620323243257958</v>
+        <v>125</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.37606106295939</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>1.494426575110878</v>
       </c>
     </row>
@@ -4643,72 +4589,66 @@
         <v>4.217462913285773e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.6362260475308245</v>
+        <v>1.455078874902367e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.5952078907049656</v>
+        <v>6.825103414110213e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.455078874902367e-06</v>
+        <v>-0.04801960708104018</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.825103414110213e-06</v>
+        <v>0.08881200420991649</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04801960708104018</v>
+        <v>0.01018784553716308</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08881200420991649</v>
+        <v>1.92128580340105</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01018784553716308</v>
+        <v>2.968067991283144</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.946193705355125</v>
+        <v>4.013663498147812</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.968067991283144</v>
+        <v>3.557500360881915e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.013663498147812</v>
+        <v>1237590325.06791</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.557500360881915e-16</v>
+        <v>9.721275105279989e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1237590325.06791</v>
+        <v>544.8773611423783</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>9.721275105279989e-08</v>
+        <v>0.0001013082406172763</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>544.8773611423783</v>
+        <v>8.423465481428885</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001013082406172763</v>
+        <v>1.248804071123253</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.423465481428885</v>
+        <v>0.007188302984723671</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.248804071123253</v>
+        <v>3.743090836038188</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.007188302984723671</v>
+        <v>0.9625526378328578</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.743090836038188</v>
+        <v>1.167614660694156</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9625526378328578</v>
+        <v>118</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.167614660694156</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>1.584651663835422</v>
       </c>
     </row>
@@ -4723,72 +4663,66 @@
         <v>4.37345720883777e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.6101094180556803</v>
+        <v>1.491739124305159e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.6611777759726492</v>
+        <v>6.803659647826603e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.491739124305159e-06</v>
+        <v>-0.05140040970021184</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.803659647826603e-06</v>
+        <v>0.07820528381344251</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05140040970021184</v>
+        <v>0.008756219307678245</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.07820528381344251</v>
+        <v>1.923125720648848</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.008756219307678245</v>
+        <v>2.932469521557008</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.949338177155318</v>
+        <v>4.066065694974278</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.932469521557008</v>
+        <v>3.466395307006394e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.066065694974278</v>
+        <v>1270114694.873491</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.466395307006394e-16</v>
+        <v>9.479641169450609e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1270114694.873491</v>
+        <v>559.195888380961</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>9.479641169450609e-08</v>
+        <v>8.740241280165614e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>559.195888380961</v>
+        <v>7.614419368604585</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>8.740241280165614e-05</v>
+        <v>1.147745572018266</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.614419368604585</v>
+        <v>0.005067537907603394</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.147745572018266</v>
+        <v>3.964945941462202</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.005067537907603394</v>
+        <v>0.9627593202585349</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.964945941462202</v>
+        <v>1.089641358382718</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9627593202585349</v>
+        <v>118</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.089641358382718</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.841788265336431</v>
       </c>
     </row>
@@ -4803,72 +4737,66 @@
         <v>4.515708240521336e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.5835564163864301</v>
+        <v>1.526791873423146e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.7184718561168899</v>
+        <v>6.780406308179362e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.526791873423146e-06</v>
+        <v>-0.05292603590046735</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.780406308179362e-06</v>
+        <v>0.07277940953221911</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05292603590046735</v>
+        <v>0.008097690810835738</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.07277940953221911</v>
+        <v>1.924553403831338</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.008097690810835738</v>
+        <v>2.880571605600283</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.952820595447754</v>
+        <v>4.317117540805159</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.880571605600283</v>
+        <v>3.074957545378259e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.317117540805159</v>
+        <v>1454649769.195655</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.074957545378259e-16</v>
+        <v>8.285929009438044e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1454649769.195655</v>
+        <v>650.662846515724</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.285929009438044e-08</v>
+        <v>7.674669510411566e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>650.662846515724</v>
+        <v>8.777281294220407</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>7.674669510411566e-05</v>
+        <v>1.734710689359709</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.777281294220407</v>
+        <v>0.005912616574563611</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.734710689359709</v>
+        <v>4.554755166575777</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.005912616574563611</v>
+        <v>0.9630106012939497</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.554755166575777</v>
+        <v>1.109526243917135</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9630106012939497</v>
+        <v>120</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.109526243917135</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>2.970471313010212</v>
       </c>
     </row>
@@ -4883,72 +4811,66 @@
         <v>4.647976274311322e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.5570736151923583</v>
+        <v>1.559956879700167e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.7720501819118701</v>
+        <v>6.756033357389489e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.559956879700167e-06</v>
+        <v>-0.05332272043829573</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.756033357389489e-06</v>
+        <v>0.06965833284636101</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05332272043829573</v>
+        <v>0.00769560465287177</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.06965833284636101</v>
+        <v>1.932994604804533</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.00769560465287177</v>
+        <v>3.05492759555693</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.955339343304339</v>
+        <v>4.774037004059675</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.05492759555693</v>
+        <v>2.514521240852093e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.774037004059675</v>
+        <v>1774765111.439249</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.514521240852093e-16</v>
+        <v>6.782845065413372e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1774765111.439249</v>
+        <v>792.021687861528</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.782845065413372e-08</v>
+        <v>7.048253117196624e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>792.021687861528</v>
+        <v>9.939982833528759</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>7.048253117196624e-05</v>
+        <v>1.823300557032578</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.939982833528759</v>
+        <v>0.006963903763388728</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.823300557032578</v>
+        <v>5.264356217735317</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.006963903763388728</v>
+        <v>0.9633255985723959</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>5.264356217735317</v>
+        <v>1.121296176531893</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9633255985723959</v>
+        <v>120</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.121296176531893</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>4.998481254280645</v>
       </c>
     </row>
@@ -4963,72 +4885,66 @@
         <v>4.772124531504685e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.5300265282890121</v>
+        <v>1.590907890795182e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.823932287166123</v>
+        <v>6.730876668854942e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.590907890795182e-06</v>
+        <v>-0.05348753613809656</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.730876668854942e-06</v>
+        <v>0.06705359355756614</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05348753613809656</v>
+        <v>0.007357155557694372</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.06705359355756614</v>
+        <v>1.930512583474895</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.007357155557694372</v>
+        <v>2.699234333340176</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.951635197186686</v>
+        <v>5.493290169770043</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.699234333340176</v>
+        <v>1.740390207826321e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.493290169770043</v>
+        <v>2552257355.892891</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.740390207826321e-16</v>
+        <v>4.736682975807598e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>2552257355.892891</v>
+        <v>1133.69324632868</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.736682975807598e-08</v>
+        <v>6.853947100778634e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1133.69324632868</v>
+        <v>7.481395915236344</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>6.853947100778634e-05</v>
+        <v>1.597728968511318</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.481395915236344</v>
+        <v>0.003836242254595033</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.597728968511318</v>
+        <v>5.350255280842584</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.003836242254595033</v>
+        <v>0.9628832750807892</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>5.350255280842584</v>
+        <v>1.086578587583775</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9628832750807892</v>
+        <v>120</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.086578587583775</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>5.894954802315861</v>
       </c>
     </row>
@@ -5043,72 +4959,66 @@
         <v>4.887102139640356e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.5028422883270123</v>
+        <v>1.619918455224976e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.8741830756448339</v>
+        <v>6.704969672744612e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.619918455224976e-06</v>
+        <v>-0.0537995192208201</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.704969672744612e-06</v>
+        <v>0.06448936533545874</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.0537995192208201</v>
+        <v>0.007053326322045905</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.06448936533545874</v>
+        <v>1.924875596526</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.007053326322045905</v>
+        <v>2.812896632323469</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.948503594249122</v>
+        <v>6.6928437300353</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.812896632323469</v>
+        <v>8.391130446031683e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>6.6928437300353</v>
+        <v>5482332698.279028</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>8.391130446031683e-17</v>
+        <v>2.206032230772004e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>5482332698.279028</v>
+        <v>2522.03580178723</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.206032230772004e-08</v>
+        <v>6.952233768455804e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2522.03580178723</v>
+        <v>8.219530566294182</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>6.952233768455804e-05</v>
+        <v>1.312476829336922</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.219530566294182</v>
+        <v>0.004696976598971337</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.312476829336922</v>
+        <v>5.358652711780417</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.004696976598971337</v>
+        <v>0.9618541327421899</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>5.358652711780417</v>
+        <v>1.069377178795567</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9618541327421899</v>
+        <v>120</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.069377178795567</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>6.728573392955068</v>
       </c>
     </row>
@@ -5123,72 +5033,66 @@
         <v>4.991117960122506e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.4764499825181763</v>
+        <v>1.646747309470272e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.9228547595094323</v>
+        <v>6.678278575318084e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.646747309470272e-06</v>
+        <v>-0.0542665585998027</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.678278575318084e-06</v>
+        <v>0.06194163634621466</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0542665585998027</v>
+        <v>0.006781702231838234</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.06194163634621466</v>
+        <v>1.933239054764639</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.006781702231838234</v>
+        <v>2.91017889368077</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.956012423741434</v>
+        <v>6.373522667287483</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.91017889368077</v>
+        <v>7.813174858629566e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>6.373522667287483</v>
+        <v>5856267256.18431</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>7.813174858629566e-17</v>
+        <v>2.064470491351995e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>5856267256.18431</v>
+        <v>2679.595993601261</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.064470491351995e-08</v>
+        <v>6.328067526974593e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2679.595993601261</v>
+        <v>8.103017759998144</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>6.328067526974593e-05</v>
+        <v>1.276502407845758</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.103017759998144</v>
+        <v>0.004154939328163106</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.276502407845758</v>
+        <v>5.624585473222631</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.004154939328163106</v>
+        <v>0.9611972044422266</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>5.624585473222631</v>
+        <v>0.9623004835843959</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9611972044422266</v>
+        <v>93</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.9623004835843959</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>7.471710654922784</v>
       </c>
     </row>
@@ -5203,72 +5107,66 @@
         <v>5.082428608406542e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.4517150067918662</v>
+        <v>1.670803211622967e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9708234449609936</v>
+        <v>6.650804465657482e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.670803211622967e-06</v>
+        <v>-0.05471286193186698</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.650804465657482e-06</v>
+        <v>0.05965418053557468</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05471286193186698</v>
+        <v>0.006552359126318092</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.05965418053557468</v>
+        <v>1.941465514365988</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.006552359126318092</v>
+        <v>3.590024264743025</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.961852888041945</v>
+        <v>5.978238568726829</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.590024264743025</v>
+        <v>8.880555425707122e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.978238568726829</v>
+        <v>5179628857.099641</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>8.880555425707122e-17</v>
+        <v>2.337347345451658e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>5179628857.099641</v>
+        <v>2382.52470533204</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.337347345451658e-08</v>
+        <v>5.209326515789026e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2382.52470533204</v>
+        <v>8.589179241794263</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>5.209326515789026e-05</v>
+        <v>1.365608623198561</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.589179241794263</v>
+        <v>0.003843128546241454</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.365608623198561</v>
+        <v>6.272186020508208</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.003843128546241454</v>
+        <v>0.9615770319895744</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>6.272186020508208</v>
+        <v>0.8822435094672481</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9615770319895744</v>
+        <v>80</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.8822435094672481</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>9.231089276125321</v>
       </c>
     </row>
@@ -5283,72 +5181,66 @@
         <v>5.162148726109116e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.4276235293284117</v>
+        <v>1.690406727049925e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.019212823029102</v>
+        <v>6.622790269653992e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.690406727049925e-06</v>
+        <v>-0.05457025184859516</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.622790269653992e-06</v>
+        <v>0.05829760557855263</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05457025184859516</v>
+        <v>0.006376828095983115</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.05829760557855263</v>
+        <v>1.944792015554711</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.006376828095983115</v>
+        <v>3.241661835094197</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.964934887034246</v>
+        <v>5.822110731125977</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.241661835094197</v>
+        <v>1.288420368967746e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.822110731125977</v>
+        <v>3502610718.710757</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.288420368967746e-16</v>
+        <v>3.460769239182252e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>3502610718.710757</v>
+        <v>1580.670422368977</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.460769239182252e-08</v>
+        <v>3.092475017452372e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>1580.670422368977</v>
+        <v>11.63321128394653</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>3.092475017452372e-05</v>
+        <v>1.238317303586411</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.63321128394653</v>
+        <v>0.004185096068444276</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.238317303586411</v>
+        <v>7.238437645021207</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.004185096068444276</v>
+        <v>0.9606319754867301</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>7.238437645021207</v>
+        <v>0.8625991722855325</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9606319754867301</v>
+        <v>80</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.8625991722855325</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>12.54676493112165</v>
       </c>
     </row>
@@ -5363,72 +5255,66 @@
         <v>5.231302759588566e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.4028232345703224</v>
+        <v>1.705925080882776e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.068522753584271</v>
+        <v>6.594484487687666e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.705925080882776e-06</v>
+        <v>-0.0543445490840846</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6.594484487687666e-06</v>
+        <v>0.05718807877612226</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.0543445490840846</v>
+        <v>0.006224152478684734</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.05718807877612226</v>
+        <v>1.939403044495023</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.006224152478684734</v>
+        <v>2.822133461000904</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.963986128103026</v>
+        <v>5.544857047901184</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.822133461000904</v>
+        <v>2.243442312592399e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.544857047901184</v>
+        <v>1923268718.900724</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.243442312592399e-16</v>
+        <v>6.276402866106364e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1923268718.900724</v>
+        <v>829.8409131245214</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>6.276402866106364e-08</v>
+        <v>5.661511186250315e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>829.8409131245214</v>
+        <v>12.78915435314668</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>5.661511186250315e-05</v>
+        <v>1.260842414551712</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>12.78915435314668</v>
+        <v>0.009260107482826605</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.260842414551712</v>
+        <v>6.743344754204919</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.009260107482826605</v>
+        <v>0.9587094320809686</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>6.743344754204919</v>
+        <v>0.9120704411754449</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9587094320809686</v>
+        <v>80</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.9120704411754449</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>11.02071505771498</v>
       </c>
     </row>
@@ -5443,72 +5329,66 @@
         <v>5.288928505037924e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.3768528712298875</v>
+        <v>1.712184467065331e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.119226922930844</v>
+        <v>6.566028608097269e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.712184467065331e-06</v>
+        <v>-0.05369829348702947</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6.566028608097269e-06</v>
+        <v>0.0565814910195374</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05369829348702947</v>
+        <v>0.006085240290546673</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.0565814910195374</v>
+        <v>1.936205827426267</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.006085240290546673</v>
+        <v>2.298786066762638</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.953105163125765</v>
+        <v>5.413014760534947</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.298786066762638</v>
+        <v>3.795257663473321e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.413014760534947</v>
+        <v>1139169642.082604</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>3.795257663473321e-16</v>
+        <v>1.058939309535993e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1139169642.082604</v>
+        <v>492.5134233529661</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.058939309535993e-07</v>
+        <v>0.0001282676461246628</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>492.5134233529661</v>
+        <v>12.15777441121584</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001282676461246628</v>
+        <v>1.208850459164975</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>12.15777441121584</v>
+        <v>0.01895943043459094</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.208850459164975</v>
+        <v>4.976042651394303</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01895943043459094</v>
+        <v>0.9596125315380593</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.976042651394303</v>
+        <v>0.9167773958984924</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9596125315380593</v>
+        <v>53</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.9167773958984924</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>6.282442376977315</v>
       </c>
     </row>
@@ -5523,72 +5403,66 @@
         <v>5.336920375049972e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.3472809524640371</v>
+        <v>1.71420611209669e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.170396226399931</v>
+        <v>6.537796362240504e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.71420611209669e-06</v>
+        <v>-0.05253107869352194</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6.537796362240504e-06</v>
+        <v>0.05642247202315991</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05253107869352194</v>
+        <v>0.005943237669275426</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.05642247202315991</v>
+        <v>1.92482878307324</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.005943237669275426</v>
+        <v>2.270736095095253</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.940094270513548</v>
+        <v>5.020474792642863</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.270736095095253</v>
+        <v>4.234483173145412e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.020474792642863</v>
+        <v>1011089780.392753</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.234483173145412e-16</v>
+        <v>1.188212238214407e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1011089780.392753</v>
+        <v>432.892292049385</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.188212238214407e-07</v>
+        <v>0.0001642833828641275</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>432.892292049385</v>
+        <v>13.3467714180667</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001642833828641275</v>
+        <v>1.016235544293824</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>13.3467714180667</v>
+        <v>0.02926483517188787</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.016235544293824</v>
+        <v>3.919693065072109</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.02926483517188787</v>
+        <v>0.9605849165480377</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.919693065072109</v>
+        <v>1.079651854843234</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9605849165480377</v>
+        <v>7</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.079651854843234</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>4.081767479880613</v>
       </c>
     </row>
@@ -5603,72 +5477,66 @@
         <v>5.375102362356196e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.3136083005628219</v>
+        <v>1.71420611209669e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.22071339179781</v>
+        <v>6.50995522135371e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.71420611209669e-06</v>
+        <v>-0.05146202085756597</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6.50995522135371e-06</v>
+        <v>0.05646427245115534</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05146202085756597</v>
+        <v>0.005836855931308737</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.05646427245115534</v>
+        <v>1.922737815768682</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.005836855931308737</v>
+        <v>2.427203036505598</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.937038675855858</v>
+        <v>5.163521568444919</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.427203036505598</v>
+        <v>4.003114407573906e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.163521568444919</v>
+        <v>1093062261.571791</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.003114407573906e-16</v>
+        <v>1.101618065900269e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1093062261.571791</v>
+        <v>478.286147847828</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.101618065900269e-07</v>
+        <v>0.0001647832251830165</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>478.286147847828</v>
+        <v>13.28446922475214</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001647832251830165</v>
+        <v>0.9995884796162343</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>13.28446922475214</v>
+        <v>0.02908046943030901</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0.9995884796162343</v>
+        <v>3.636769923819984</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02908046943030901</v>
+        <v>0.9596559712345739</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.636769923819984</v>
+        <v>1.120088632737027</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9596559712345739</v>
+        <v>2</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.120088632737027</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>3.006423617580023</v>
       </c>
     </row>
@@ -5683,72 +5551,66 @@
         <v>5.400329425968329e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.277732777845993</v>
+        <v>1.71420611209669e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.269830409373416</v>
+        <v>6.482394058836723e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.71420611209669e-06</v>
+        <v>-0.05092898325240459</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.482394058836723e-06</v>
+        <v>0.05646772937380881</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05092898325240459</v>
+        <v>0.005782654527869179</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.05646772937380881</v>
+        <v>1.914972915089743</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.005782654527869179</v>
+        <v>2.436963574672871</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.928501319321141</v>
+        <v>5.075922709372826</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.436963574672871</v>
+        <v>4.142475915848039e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5.075922709372826</v>
+        <v>1065964628.528647</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.142475915848039e-16</v>
+        <v>1.127372818770004e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1065964628.528647</v>
+        <v>470.7014974714054</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.127372818770004e-07</v>
+        <v>0.0001315637257644018</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>470.7014974714054</v>
+        <v>11.33446646045454</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001315637257644018</v>
+        <v>1.109686527388855</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.33446646045454</v>
+        <v>0.01690200894476013</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.109686527388855</v>
+        <v>4.001571795214914</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01690200894476013</v>
+        <v>0.958519882741297</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>4.001571795214914</v>
+        <v>1.118664459024556</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.958519882741297</v>
+        <v>2</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.118664459024556</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>2.372929049722118</v>
       </c>
     </row>
@@ -5763,72 +5625,66 @@
         <v>5.406162719425673e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2433076186512449</v>
+        <v>1.71420611209669e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.320254999887887</v>
+        <v>6.454839053181678e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.71420611209669e-06</v>
+        <v>-0.05108196994656382</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>6.454839053181678e-06</v>
+        <v>0.0560873585502817</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05108196994656382</v>
+        <v>0.005755250952221448</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.0560873585502817</v>
+        <v>1.902841651866064</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.005755250952221448</v>
+        <v>2.1706676073339</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.910088561581406</v>
+        <v>5.824043947978746</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.1706676073339</v>
+        <v>5.788153045603907e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.824043947978746</v>
+        <v>772232539.1097769</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.788153045603907e-16</v>
+        <v>1.555469130520163e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>772232539.1097769</v>
+        <v>345.172509842312</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.555469130520163e-07</v>
+        <v>8.584939671694988e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>345.172509842312</v>
+        <v>8.734626298252106</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>8.584939671694988e-05</v>
+        <v>1.206226829254625</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.734626298252106</v>
+        <v>0.006549767823850597</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.206226829254625</v>
+        <v>4.564772284677738</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.006549767823850597</v>
+        <v>0.9579796703260809</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>4.564772284677738</v>
+        <v>1.192097784313959</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9579796703260809</v>
+        <v>2</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.192097784313959</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>2.410119290720596</v>
       </c>
     </row>
@@ -5843,72 +5699,66 @@
         <v>5.386800501868842e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.2141054399207585</v>
+        <v>1.71420611209669e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.377574673430739</v>
+        <v>6.427155193226809e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.71420611209669e-06</v>
+        <v>-0.05146200155831169</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6.427155193226809e-06</v>
+        <v>0.05596241027799837</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05146200155831169</v>
+        <v>0.005780350550740132</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.05596241027799837</v>
+        <v>1.876229386395042</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.005780350550740132</v>
+        <v>1.985162975252579</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.860187040743093</v>
+        <v>8.392132788972825</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.985162975252579</v>
+        <v>1.215216078885444e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>8.392132788972825</v>
+        <v>386040825.1875039</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.215216078885444e-15</v>
+        <v>3.093703231898156e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>386040825.1875039</v>
+        <v>181.100636934554</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.093703231898156e-07</v>
+        <v>0.0001085423934459045</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>181.100636934554</v>
+        <v>7.866458882041838</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001085423934459045</v>
+        <v>2.306921384049156</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.866458882041838</v>
+        <v>0.00671673088095916</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>2.306921384049156</v>
+        <v>4.416148502527229</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.00671673088095916</v>
+        <v>0.956051401031235</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>4.416148502527229</v>
+        <v>1.415414496648154</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.956051401031235</v>
+        <v>3</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.415414496648154</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>1.665945091968381</v>
       </c>
     </row>
@@ -6285,7 +6135,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.757767219387115</v>
+        <v>1.792872230906141</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.945998508314839</v>
@@ -6374,7 +6224,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.738630563473697</v>
+        <v>1.77325183716323</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.23373720992098</v>
@@ -6463,7 +6313,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.734650830940125</v>
+        <v>1.764587810617513</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.163209450135283</v>
@@ -6552,7 +6402,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.764735031832525</v>
+        <v>1.787947822345969</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.807035722909262</v>
@@ -6641,7 +6491,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.766340410960635</v>
+        <v>1.790073853676523</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.887085538264765</v>
@@ -6730,7 +6580,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.771519329342384</v>
+        <v>1.798214083883514</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.173921714819809</v>
@@ -6819,7 +6669,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.796812412962413</v>
+        <v>1.815067089035552</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.398481273319724</v>
@@ -6908,7 +6758,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.795885887772362</v>
+        <v>1.812572407229748</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.189418158149847</v>
@@ -6997,7 +6847,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.805739868274776</v>
+        <v>1.818109767594241</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.269621135812526</v>
@@ -7086,7 +6936,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.795877191740522</v>
+        <v>1.807092422860211</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.332370041114858</v>
@@ -7175,7 +7025,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.81972582197997</v>
+        <v>1.822695607847442</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.988178178070147</v>
@@ -7264,7 +7114,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.821570747422672</v>
+        <v>1.821269784088072</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.117304899875004</v>
@@ -7353,7 +7203,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.80471457977355</v>
+        <v>1.803660272960136</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.878954919452008</v>
@@ -7442,7 +7292,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.817529614469828</v>
+        <v>1.817729555077497</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.945403982283591</v>
@@ -7531,7 +7381,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.854151325253137</v>
+        <v>1.842047281793245</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.930425438717356</v>
@@ -7620,7 +7470,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.852563386534457</v>
+        <v>1.840994993790922</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.237567452289906</v>
@@ -7709,7 +7559,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.875318610752629</v>
+        <v>1.862550102518244</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.497841525917861</v>
@@ -7798,7 +7648,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.864053516693106</v>
+        <v>1.859720433139525</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.196249863159497</v>
@@ -7887,7 +7737,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.867979658371101</v>
+        <v>1.865758384435092</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.506369038459691</v>
@@ -7976,7 +7826,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.871185728361195</v>
+        <v>1.875572956712138</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.51854378130197</v>
@@ -8065,7 +7915,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.86839146827168</v>
+        <v>1.875252446576287</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.44239224199977</v>
@@ -8154,7 +8004,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.869770354436457</v>
+        <v>1.87689161300256</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.140417414646205</v>
@@ -8243,7 +8093,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.869793249254235</v>
+        <v>1.88119559389233</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.313944586334046</v>
@@ -8332,7 +8182,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.844370989746169</v>
+        <v>1.867646479711999</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.995107392073037</v>
@@ -8421,7 +8271,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.85801420804664</v>
+        <v>1.882304148435744</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.404040817836793</v>
@@ -8510,7 +8360,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.860006880885368</v>
+        <v>1.889134718541714</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.315692064680368</v>
@@ -8599,7 +8449,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.846062261803866</v>
+        <v>1.884414150467459</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.170573856053576</v>
@@ -8688,7 +8538,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.867812266291454</v>
+        <v>1.901565793981802</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.026913920415748</v>
@@ -8777,7 +8627,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.864657189859576</v>
+        <v>1.896854861620032</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.218757957068474</v>
@@ -8866,7 +8716,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.871329742700013</v>
+        <v>1.901787174041741</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.125105624065479</v>
@@ -8955,7 +8805,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.878321796914725</v>
+        <v>1.907708388627925</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.193103455790608</v>
@@ -9044,7 +8894,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.858013998348542</v>
+        <v>1.892528808678483</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.229570722239207</v>
@@ -9133,7 +8983,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.873215276647712</v>
+        <v>1.90867933555196</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.381595399996083</v>
@@ -9222,7 +9072,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.808587350797838</v>
+        <v>1.849696162455133</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.098075624352369</v>
@@ -9311,7 +9161,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.765805952080643</v>
+        <v>1.812922701055652</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.87903892483287</v>
@@ -9400,7 +9250,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.76859416318325</v>
+        <v>1.818413697501864</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.839122228182576</v>
@@ -9489,7 +9339,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.768360082878945</v>
+        <v>1.822529644842902</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.82695037494367</v>
@@ -9578,7 +9428,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.771730920738235</v>
+        <v>1.822695156575823</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.686592475732176</v>
@@ -9667,7 +9517,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.794520135903454</v>
+        <v>1.84265702312459</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.913523978638911</v>
@@ -9756,7 +9606,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.788237914050347</v>
+        <v>1.837154675506236</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.923341327627159</v>
@@ -9845,7 +9695,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.777364075963502</v>
+        <v>1.826745311672154</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.865721757241589</v>
@@ -9934,7 +9784,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.789029318105523</v>
+        <v>1.832005760959825</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.759381996964519</v>
@@ -10023,7 +9873,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.782950424693595</v>
+        <v>1.828424988785653</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.94258452121734</v>
@@ -10112,7 +9962,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.793021764598067</v>
+        <v>1.834833434816118</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.927583607904436</v>
@@ -10201,7 +10051,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.781374920286885</v>
+        <v>1.831180380031372</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.891367831559594</v>
@@ -10290,7 +10140,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.783888218336504</v>
+        <v>1.835512331498773</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.882497494002738</v>
@@ -10379,7 +10229,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.795355857606706</v>
+        <v>1.844245647460215</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.90069425222268</v>
@@ -10468,7 +10318,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.796142024101498</v>
+        <v>1.840670177976143</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.743186272240284</v>
@@ -10557,7 +10407,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.871540768476631</v>
+        <v>1.910688452283932</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.025622053507544</v>
@@ -10646,7 +10496,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.894576598380679</v>
+        <v>1.927255977766253</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.06164015954491</v>
@@ -10735,7 +10585,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.911004266828878</v>
+        <v>1.93704040272959</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.565908519098479</v>
@@ -10824,7 +10674,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.912880188616338</v>
+        <v>1.937026037932917</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.200758887866881</v>
@@ -10913,7 +10763,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.910855987006714</v>
+        <v>1.9361171639148</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.506195588529998</v>
@@ -11002,7 +10852,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.907617682542063</v>
+        <v>1.928510347283124</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.157199947264437</v>
@@ -11091,7 +10941,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.933146063357075</v>
+        <v>1.94969649171791</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.493315818922909</v>
@@ -11180,7 +11030,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.918409658446325</v>
+        <v>1.939819500673916</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.386801872550656</v>
@@ -11269,7 +11119,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.919031204901848</v>
+        <v>1.938415282757801</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.767507676619086</v>
@@ -11358,7 +11208,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.930845173893166</v>
+        <v>1.944772540924523</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.013303447029895</v>
@@ -11447,7 +11297,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.942244921391403</v>
+        <v>1.953571966258465</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.384674110848823</v>
@@ -11536,7 +11386,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.949133897502461</v>
+        <v>1.949830224042817</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.852894788438788</v>
@@ -11625,7 +11475,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.939992029806723</v>
+        <v>1.93892031661083</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.563572842051457</v>
@@ -11714,7 +11564,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.940654254451794</v>
+        <v>1.94281600722053</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.627485800679362</v>
@@ -11803,7 +11653,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.940641159257724</v>
+        <v>1.944575770882498</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.80535435694093</v>
@@ -11892,7 +11742,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.96005458643908</v>
+        <v>1.957377568077479</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.17475610252495</v>
@@ -11981,7 +11831,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.95725088069161</v>
+        <v>1.959078217980612</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.44467232704449</v>
@@ -12070,7 +11920,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.954393424127243</v>
+        <v>1.956281335746454</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.819579638042411</v>
@@ -12159,7 +12009,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.951920612480119</v>
+        <v>1.950562607643241</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.587900068711501</v>
@@ -12248,7 +12098,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.954647175563233</v>
+        <v>1.950593843248902</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.281318914029185</v>
@@ -12534,7 +12384,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.578020640277416</v>
+        <v>1.588065272344395</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.49808685336696</v>
@@ -12623,7 +12473,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.5989406008331</v>
+        <v>1.610839258119304</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.380442766927487</v>
@@ -12712,7 +12562,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.599311655880169</v>
+        <v>1.611434654950384</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.595281265631619</v>
@@ -12801,7 +12651,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.612452196415625</v>
+        <v>1.622375511041315</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.494649505810459</v>
@@ -12890,7 +12740,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.625117056891815</v>
+        <v>1.638960144488934</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.436374247263164</v>
@@ -12979,7 +12829,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.637679137822731</v>
+        <v>1.650612459213565</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.466621987884673</v>
@@ -13068,7 +12918,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.677305092186645</v>
+        <v>1.679449085714203</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.904216298095641</v>
@@ -13157,7 +13007,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.682145046168394</v>
+        <v>1.683678019256158</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.278983447514298</v>
@@ -13246,7 +13096,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.681069585037045</v>
+        <v>1.683783245022288</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.931776091335009</v>
@@ -13335,7 +13185,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.683148460648977</v>
+        <v>1.686808982449854</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.418674535983362</v>
@@ -13424,7 +13274,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.69278776701024</v>
+        <v>1.69413148340198</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.644874198149791</v>
@@ -13513,7 +13363,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.691981647050009</v>
+        <v>1.694450294882836</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.206904605241368</v>
@@ -13602,7 +13452,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.688474991925804</v>
+        <v>1.685317806577565</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.893304206977663</v>
@@ -13691,7 +13541,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.68112443369785</v>
+        <v>1.678356960058246</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.278099882708446</v>
@@ -13780,7 +13630,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.682459957519178</v>
+        <v>1.677619538068843</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.134181055789687</v>
@@ -13869,7 +13719,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.68989990642714</v>
+        <v>1.684618808534263</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.209217934419791</v>
@@ -13958,7 +13808,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.691348369006402</v>
+        <v>1.688499491153405</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.840618998778206</v>
@@ -14047,7 +13897,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.683551894965623</v>
+        <v>1.681510709442868</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.059538079242356</v>
@@ -14136,7 +13986,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.667982736620244</v>
+        <v>1.668405867666069</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.889588826386856</v>
@@ -14225,7 +14075,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.652977812406747</v>
+        <v>1.651034899731827</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.99227054190518</v>
@@ -14314,7 +14164,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.656439582527003</v>
+        <v>1.652940432060762</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.130483035487204</v>
@@ -14403,7 +14253,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.650625498168168</v>
+        <v>1.65841444482071</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.9742890832339</v>
@@ -14492,7 +14342,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.64313404635002</v>
+        <v>1.653316066174219</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.193438495164269</v>
@@ -14581,7 +14431,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.614197194097717</v>
+        <v>1.62795210582746</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.016066339664137</v>
@@ -14670,7 +14520,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.616548492952082</v>
+        <v>1.630644905661683</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.057620568432612</v>
@@ -14759,7 +14609,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.629292503434461</v>
+        <v>1.648562920012548</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.205833463002507</v>
@@ -14848,7 +14698,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.633642827458692</v>
+        <v>1.654484526697394</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.001817907287734</v>
@@ -14937,7 +14787,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.64116846145705</v>
+        <v>1.666544558308744</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.985428458315629</v>
@@ -15026,7 +14876,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.640685734303404</v>
+        <v>1.661532158364289</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.095598899916812</v>
@@ -15115,7 +14965,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.639580859124292</v>
+        <v>1.662578076084475</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.114238484755846</v>
@@ -15204,7 +15054,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.644153225649342</v>
+        <v>1.667104147970732</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.284598701946412</v>
@@ -15293,7 +15143,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.63380240126021</v>
+        <v>1.655884030115252</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.249517160373024</v>
@@ -15382,7 +15232,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.642235045664487</v>
+        <v>1.662831873888528</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.272101895865136</v>
@@ -15471,7 +15321,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.634496787979601</v>
+        <v>1.648485947884391</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.715574022996781</v>
@@ -15560,7 +15410,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.601859705346335</v>
+        <v>1.62374991374278</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.959609624449726</v>
@@ -15649,7 +15499,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.600999808823928</v>
+        <v>1.623384589898884</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.886610209738299</v>
@@ -15738,7 +15588,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.609373094076579</v>
+        <v>1.629527041865864</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.83903235710209</v>
@@ -15827,7 +15677,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.624896891560662</v>
+        <v>1.645037470388808</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.639897213056434</v>
@@ -15916,7 +15766,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.64452507651959</v>
+        <v>1.661281983595845</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.84736603089864</v>
@@ -16005,7 +15855,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.642958376538408</v>
+        <v>1.657690870591808</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.66137793961702</v>
@@ -16094,7 +15944,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.632461037661551</v>
+        <v>1.643409184215195</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.903765578626058</v>
@@ -16183,7 +16033,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.640986817557189</v>
+        <v>1.651956863817499</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.628097063197064</v>
@@ -16272,7 +16122,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.584499818697868</v>
+        <v>1.598462908015734</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.562257847393984</v>
@@ -16361,7 +16211,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.598164166738267</v>
+        <v>1.614616369337722</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.570215888035401</v>
@@ -16450,7 +16300,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.599478184916133</v>
+        <v>1.616622947223639</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.587767150645524</v>
@@ -16539,7 +16389,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.602685144541025</v>
+        <v>1.620173872140101</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.57397236466061</v>
@@ -16628,7 +16478,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.607791260918874</v>
+        <v>1.623785801420076</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.690136736378324</v>
@@ -16717,7 +16567,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.6048253453192</v>
+        <v>1.61901083786866</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.665261414594236</v>
@@ -16806,7 +16656,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.615289240610897</v>
+        <v>1.630767784078676</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.432698212359041</v>
@@ -16895,7 +16745,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.638946474614768</v>
+        <v>1.650421302894756</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.478193257443265</v>
@@ -16984,7 +16834,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.639467547143618</v>
+        <v>1.649096442269496</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.565578490336803</v>
@@ -17073,7 +16923,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.635372949811772</v>
+        <v>1.646401533228163</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.494411495796741</v>
@@ -17162,7 +17012,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.626381708968188</v>
+        <v>1.640438549429554</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.582959293790327</v>
@@ -17251,7 +17101,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.624309698040395</v>
+        <v>1.636782122855532</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.584077369695805</v>
@@ -17340,7 +17190,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.623244075138382</v>
+        <v>1.63803052872176</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.549996454614136</v>
@@ -17429,7 +17279,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.617578995678622</v>
+        <v>1.632069092053604</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.57270437841539</v>
@@ -17518,7 +17368,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.620383635163285</v>
+        <v>1.633113250874955</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.176385203933096</v>
@@ -17607,7 +17457,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.669225860103545</v>
+        <v>1.676604774765894</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.317327039801277</v>
@@ -17696,7 +17546,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.648445357015132</v>
+        <v>1.654923796714167</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.941844072693113</v>
@@ -17785,7 +17635,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.639158112929763</v>
+        <v>1.645152539174037</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.250070414373594</v>
@@ -17874,7 +17724,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.614577364292707</v>
+        <v>1.615366157086838</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.746061716534386</v>
@@ -17963,7 +17813,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.600054558518069</v>
+        <v>1.605705951072291</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.771027785144077</v>
@@ -18052,7 +17902,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.59578364191817</v>
+        <v>1.601701233646345</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.873077316270876</v>
@@ -18141,7 +17991,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.599964122168653</v>
+        <v>1.603805334335062</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.906442049298039</v>
@@ -18230,7 +18080,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.60327141520521</v>
+        <v>1.610494300707447</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.938597539067965</v>
@@ -18319,7 +18169,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.592460873325102</v>
+        <v>1.603549178204594</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.680841004452533</v>
@@ -18408,7 +18258,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.570633310552847</v>
+        <v>1.579562646991383</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.447367428093217</v>
@@ -18497,7 +18347,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.573195323700472</v>
+        <v>1.578430498855683</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.607116332082762</v>
@@ -18783,7 +18633,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.845769556815005</v>
+        <v>1.830327803499527</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.270545142392203</v>
@@ -18872,7 +18722,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.84734586348782</v>
+        <v>1.830377230380131</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.444707127451253</v>
@@ -18961,7 +18811,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.839500785816401</v>
+        <v>1.819798698188228</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.51439665350547</v>
@@ -19050,7 +18900,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.848021505416714</v>
+        <v>1.835504493053655</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.898447206880705</v>
@@ -19139,7 +18989,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.851515404800486</v>
+        <v>1.843342691442835</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.554157386472284</v>
@@ -19228,7 +19078,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.853360383308547</v>
+        <v>1.844125063667881</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.788934540703169</v>
@@ -19317,7 +19167,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.852798489817051</v>
+        <v>1.841185952783126</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.865966643612635</v>
@@ -19406,7 +19256,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.858772056438277</v>
+        <v>1.841786219482644</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.271389254779362</v>
@@ -19495,7 +19345,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.858256305917909</v>
+        <v>1.840614805267361</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.020889256070419</v>
@@ -19584,7 +19434,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.855524733803803</v>
+        <v>1.833273837596167</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.575982015730204</v>
@@ -19673,7 +19523,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.862624694423303</v>
+        <v>1.839142989282062</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.527306021780393</v>
@@ -19762,7 +19612,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.863520142550534</v>
+        <v>1.83561091723103</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.933561735801357</v>
@@ -19851,7 +19701,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.857724459852647</v>
+        <v>1.829397471044829</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.062159309726693</v>
@@ -19940,7 +19790,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.855352757427438</v>
+        <v>1.826111767435817</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.928012145391076</v>
@@ -20029,7 +19879,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.858428419034956</v>
+        <v>1.835453478190383</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.782794826172845</v>
@@ -20118,7 +19968,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.854453844810367</v>
+        <v>1.834492834839136</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.071639648396757</v>
@@ -20207,7 +20057,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.85330848269381</v>
+        <v>1.835696343092254</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.761210263803157</v>
@@ -20296,7 +20146,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.84662599295367</v>
+        <v>1.829905354393739</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.659857337065706</v>
@@ -20385,7 +20235,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.853860677934739</v>
+        <v>1.835490911772829</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.572172265836681</v>
@@ -20474,7 +20324,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.855205164268972</v>
+        <v>1.840667937035995</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.111400064752902</v>
@@ -20563,7 +20413,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.855073025986703</v>
+        <v>1.843937427531111</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.153774885429463</v>
@@ -20652,7 +20502,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.857591561869808</v>
+        <v>1.846530131171735</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.128585005437794</v>
@@ -20741,7 +20591,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.860428561382549</v>
+        <v>1.852549070228545</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.149711989127394</v>
@@ -20830,7 +20680,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.857812839701295</v>
+        <v>1.853837499470389</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.008006353098558</v>
@@ -20919,7 +20769,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.861823094856327</v>
+        <v>1.861395364738228</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.548759542222309</v>
@@ -21008,7 +20858,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.863034764871076</v>
+        <v>1.860277075897214</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.099555452053644</v>
@@ -21097,7 +20947,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.858005213875923</v>
+        <v>1.857614782174982</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.914917287882758</v>
@@ -21186,7 +21036,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.854009793997235</v>
+        <v>1.853628029219861</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.174585962366213</v>
@@ -21275,7 +21125,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.858685242207734</v>
+        <v>1.858577311999562</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.616294997358637</v>
@@ -21364,7 +21214,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.862163149571109</v>
+        <v>1.86307143397286</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.449828840801938</v>
@@ -21453,7 +21303,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.863774051731626</v>
+        <v>1.859899303962305</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.068432607884429</v>
@@ -21542,7 +21392,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.855974722035157</v>
+        <v>1.851628020145795</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.579682034105562</v>
@@ -21631,7 +21481,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.869501002240726</v>
+        <v>1.870825685366402</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.425592520169284</v>
@@ -21720,7 +21570,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.840938045013895</v>
+        <v>1.844864368343593</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.809908188693057</v>
@@ -21809,7 +21659,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.846327175437709</v>
+        <v>1.849472780430586</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.695452477779119</v>
@@ -21898,7 +21748,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.846040734220224</v>
+        <v>1.852434115129766</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.030736487814882</v>
@@ -21987,7 +21837,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.844137777752009</v>
+        <v>1.855219199207491</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.679323767180865</v>
@@ -22076,7 +21926,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.84451673584903</v>
+        <v>1.854796498486685</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.946070917112368</v>
@@ -22165,7 +22015,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.843583753475762</v>
+        <v>1.85217300481018</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.384668547933504</v>
@@ -22254,7 +22104,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.838993089064134</v>
+        <v>1.841791109697081</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.990520577549667</v>
@@ -22343,7 +22193,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.838779922390788</v>
+        <v>1.846364649356599</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.892369019138787</v>
@@ -22432,7 +22282,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.844528214773383</v>
+        <v>1.852370345379841</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.946506848627205</v>
@@ -22521,7 +22371,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.845228193408768</v>
+        <v>1.850400981733681</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.771011705874881</v>
@@ -22610,7 +22460,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.847380434305223</v>
+        <v>1.853717847995062</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.983236437394716</v>
@@ -22699,7 +22549,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.848906869523037</v>
+        <v>1.855945608835563</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.694933421822826</v>
@@ -22788,7 +22638,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.855778318703792</v>
+        <v>1.866639734167738</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.262269321480177</v>
@@ -22877,7 +22727,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.860551852275372</v>
+        <v>1.871915662772259</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.660525943213746</v>
@@ -22966,7 +22816,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.854528229075708</v>
+        <v>1.861870168255833</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.069667494547918</v>
@@ -23055,7 +22905,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.880148236474695</v>
+        <v>1.884803258375361</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.337255168286409</v>
@@ -23144,7 +22994,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.868368226880334</v>
+        <v>1.869064768283617</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.172167627422422</v>
@@ -23233,7 +23083,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.864726634860608</v>
+        <v>1.861084543314952</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.256887466987504</v>
@@ -23322,7 +23172,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.864638258572099</v>
+        <v>1.859069347574807</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.769016655885531</v>
@@ -23411,7 +23261,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.860034937447596</v>
+        <v>1.852510661469475</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.385869048964866</v>
@@ -23500,7 +23350,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.863669613478448</v>
+        <v>1.852960430861706</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.739599312868827</v>
@@ -23589,7 +23439,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.867090970657487</v>
+        <v>1.859067289692524</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.224170505242289</v>
@@ -23678,7 +23528,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.856726256323648</v>
+        <v>1.848877622502091</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.191184978268918</v>
@@ -23767,7 +23617,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.854048783219749</v>
+        <v>1.846025247462598</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.271077488975468</v>
@@ -23856,7 +23706,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.860648115998809</v>
+        <v>1.850188363245656</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.236360668093536</v>
@@ -23945,7 +23795,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.864137202397704</v>
+        <v>1.858099934603317</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.649167772074442</v>
@@ -24034,7 +23884,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.855877299291997</v>
+        <v>1.843872937310541</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.51194306882202</v>
@@ -24123,7 +23973,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.849341234005119</v>
+        <v>1.829984418139076</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.688405435248888</v>
@@ -24212,7 +24062,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.851128693002301</v>
+        <v>1.836162254770037</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.95781212449546</v>
@@ -24301,7 +24151,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.857354887723525</v>
+        <v>1.838337210132531</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.077920003155898</v>
@@ -24390,7 +24240,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.860194688694829</v>
+        <v>1.845031387576192</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.382775993147979</v>
@@ -24479,7 +24329,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.870692483527594</v>
+        <v>1.859360966334269</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.478786593893624</v>
@@ -24568,7 +24418,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.873290131721506</v>
+        <v>1.864686611869345</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.19109717137176</v>
@@ -24657,7 +24507,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.880026829413862</v>
+        <v>1.869871660441554</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.055647628155116</v>
@@ -24746,7 +24596,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.886476063343649</v>
+        <v>1.871575038528542</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.469387458411211</v>
@@ -25032,7 +24882,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.866217125258298</v>
+        <v>1.858023789021424</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.348089064703434</v>
@@ -25121,7 +24971,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.863342603087091</v>
+        <v>1.849995668676945</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.373623692572973</v>
@@ -25210,7 +25060,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.856901650657437</v>
+        <v>1.833960361220709</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.989320474784131</v>
@@ -25299,7 +25149,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.867570822541967</v>
+        <v>1.843120035815298</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.530195738208933</v>
@@ -25388,7 +25238,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.871757075196459</v>
+        <v>1.838803640396464</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.18224449043355</v>
@@ -25477,7 +25327,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.863467431546753</v>
+        <v>1.829277228678629</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.173492255366003</v>
@@ -25566,7 +25416,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.88175990276854</v>
+        <v>1.843204446786099</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.197155181983087</v>
@@ -25655,7 +25505,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.879996884613005</v>
+        <v>1.836236212366603</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.19760791993026</v>
@@ -25744,7 +25594,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.89179626287753</v>
+        <v>1.8475493724777</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.311442225943413</v>
@@ -25833,7 +25683,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.886956172550406</v>
+        <v>1.845001317373962</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.099420940547006</v>
@@ -25922,7 +25772,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.895594838863693</v>
+        <v>1.849675742059191</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.166458352162094</v>
@@ -26011,7 +25861,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.894713467269623</v>
+        <v>1.844002887008457</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.184846648616723</v>
@@ -26100,7 +25950,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.88191664693026</v>
+        <v>1.829936701138354</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.035214742269533</v>
@@ -26189,7 +26039,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.885400138384346</v>
+        <v>1.832943917938663</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.230176647495175</v>
@@ -26278,7 +26128,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.894465423344405</v>
+        <v>1.841550886482423</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.231359747534419</v>
@@ -26367,7 +26217,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.892428950202073</v>
+        <v>1.849740375669302</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.297664565352025</v>
@@ -26456,7 +26306,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.89964480620178</v>
+        <v>1.86445527155579</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.58563363033522</v>
@@ -26545,7 +26395,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.897045859981388</v>
+        <v>1.867551945449522</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.559877447109191</v>
@@ -26634,7 +26484,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.90037772241826</v>
+        <v>1.878485023605332</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.355204482170253</v>
@@ -26723,7 +26573,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.900736210373176</v>
+        <v>1.888331800452657</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.370807887887052</v>
@@ -26812,7 +26662,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.904289030806949</v>
+        <v>1.897945696329123</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.202054019618895</v>
@@ -26901,7 +26751,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.905514146283897</v>
+        <v>1.90231979743791</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.128306004402225</v>
@@ -26990,7 +26840,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.907353162540133</v>
+        <v>1.908886201139835</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.155770081074863</v>
@@ -27079,7 +26929,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.891627198187489</v>
+        <v>1.893508344939049</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.740795686838894</v>
@@ -27168,7 +27018,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.896953495287646</v>
+        <v>1.897155248470087</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.036469207720577</v>
@@ -27257,7 +27107,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.899763096085421</v>
+        <v>1.903651639181714</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.428415624318236</v>
@@ -27346,7 +27196,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.892741699794157</v>
+        <v>1.89476898395972</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.294532678335204</v>
@@ -27435,7 +27285,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.903421692391061</v>
+        <v>1.905191711770099</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.123352306842519</v>
@@ -27524,7 +27374,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.902006056520894</v>
+        <v>1.903994494163066</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.438343378982321</v>
@@ -27613,7 +27463,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.908190219560697</v>
+        <v>1.912871125054862</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.160370499994071</v>
@@ -27702,7 +27552,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.905795956649815</v>
+        <v>1.907066541525254</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.489289572640365</v>
@@ -27791,7 +27641,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.895704973579079</v>
+        <v>1.897811021086873</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.525202773290227</v>
@@ -27880,7 +27730,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.900675803804234</v>
+        <v>1.906008519321004</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.286178187134182</v>
@@ -27969,7 +27819,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.866637746650597</v>
+        <v>1.875628664038557</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.379203746932764</v>
@@ -28058,7 +27908,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.859900346395461</v>
+        <v>1.869124024442077</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.409651480675967</v>
@@ -28147,7 +27997,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.860530214992231</v>
+        <v>1.872865038444296</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.430301983950414</v>
@@ -28236,7 +28086,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.859766563473828</v>
+        <v>1.874528643063059</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.641581754905728</v>
@@ -28325,7 +28175,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.860868783695615</v>
+        <v>1.876256551088051</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.349858605838322</v>
@@ -28414,7 +28264,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.870715467097493</v>
+        <v>1.886623944587955</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.008278074878083</v>
@@ -28503,7 +28353,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.867731794103987</v>
+        <v>1.877184587567493</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.286879029682712</v>
@@ -28592,7 +28442,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.858244208801699</v>
+        <v>1.870402223565117</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.393521220976373</v>
@@ -28681,7 +28531,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.871862232369193</v>
+        <v>1.887373811861034</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.597625510394125</v>
@@ -28770,7 +28620,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.861482898407271</v>
+        <v>1.87888630110277</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.2725885766573</v>
@@ -28859,7 +28709,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.872628134778648</v>
+        <v>1.888818784586503</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.388349933445736</v>
@@ -28948,7 +28798,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.865224964201589</v>
+        <v>1.883179209795892</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.634122774239338</v>
@@ -29037,7 +28887,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.871350910465911</v>
+        <v>1.885622118886699</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.158825960427678</v>
@@ -29126,7 +28976,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.876508389914064</v>
+        <v>1.891465177532276</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.465321822997527</v>
@@ -29215,7 +29065,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.878008902988613</v>
+        <v>1.891586893327606</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.901331650537017</v>
@@ -29304,7 +29154,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.904670106576054</v>
+        <v>1.915695205620529</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.012354251273799</v>
@@ -29393,7 +29243,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.899531070401978</v>
+        <v>1.910896565587039</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.488949717125073</v>
@@ -29482,7 +29332,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.905172687921471</v>
+        <v>1.912466276905707</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.251077291473987</v>
@@ -29571,7 +29421,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.899730123341599</v>
+        <v>1.906685610561434</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.073712399439556</v>
@@ -29660,7 +29510,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.899707921606966</v>
+        <v>1.905823695721998</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.769424786428549</v>
@@ -29749,7 +29599,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.900602008748171</v>
+        <v>1.906461433543387</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.663451366186409</v>
@@ -29838,7 +29688,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.909667124494669</v>
+        <v>1.919566875268595</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.949519749140694</v>
@@ -29927,7 +29777,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.898070954706752</v>
+        <v>1.905451325959179</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.786659745779753</v>
@@ -30016,7 +29866,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.89032497814888</v>
+        <v>1.896988059624581</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.888259001435028</v>
@@ -30105,7 +29955,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.900819120655761</v>
+        <v>1.903906672185017</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.932005138481051</v>
@@ -30194,7 +30044,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.905376602686257</v>
+        <v>1.907428920879767</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.279773608810703</v>
@@ -30283,7 +30133,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.906458120901132</v>
+        <v>1.90300363943423</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.019267579175781</v>
@@ -30372,7 +30222,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.89708223453887</v>
+        <v>1.889788596212232</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.246659257297738</v>
@@ -30461,7 +30311,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.897002953240542</v>
+        <v>1.889009187257492</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.454057377050802</v>
@@ -30550,7 +30400,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.898629053596911</v>
+        <v>1.888712145268387</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.965837919149913</v>
@@ -30639,7 +30489,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.914247222891103</v>
+        <v>1.899432123935101</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.561863373696651</v>
@@ -30728,7 +30578,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.921094350041548</v>
+        <v>1.909049446089425</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.919592804916677</v>
@@ -30817,7 +30667,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.917819371926024</v>
+        <v>1.902388815091379</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.365172881100977</v>
@@ -30906,7 +30756,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.921480436236582</v>
+        <v>1.901708044389137</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.900995620058739</v>
@@ -30995,7 +30845,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.925721733749723</v>
+        <v>1.899008831609514</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.028458757669653</v>
@@ -31281,7 +31131,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.470767167465656</v>
+        <v>1.478989765919053</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.349985596761293</v>
@@ -31370,7 +31220,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.486161000820381</v>
+        <v>1.499458870659506</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.29322778908504</v>
@@ -31459,7 +31309,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.512689692952916</v>
+        <v>1.52430020004794</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.314837937328089</v>
@@ -31548,7 +31398,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.581452517282118</v>
+        <v>1.58831356362312</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.4379204209085</v>
@@ -31637,7 +31487,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.570892971912698</v>
+        <v>1.576248565842135</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.399733996585153</v>
@@ -31726,7 +31576,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.573239091918835</v>
+        <v>1.583088336777462</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.364708906086773</v>
@@ -31815,7 +31665,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.570944855580826</v>
+        <v>1.581453937369289</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.399494341767825</v>
@@ -31904,7 +31754,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.563981322709594</v>
+        <v>1.572562963891704</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.310369783867758</v>
@@ -31993,7 +31843,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.572883222825721</v>
+        <v>1.578052660202355</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.441915908977125</v>
@@ -32082,7 +31932,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.581112510298424</v>
+        <v>1.583672516331397</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.349550382519953</v>
@@ -32171,7 +32021,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.603936488531835</v>
+        <v>1.615003749092838</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.751155058721177</v>
@@ -32260,7 +32110,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.616495982493102</v>
+        <v>1.627576171293019</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.783446953644656</v>
@@ -32349,7 +32199,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.603779855966754</v>
+        <v>1.612516663998108</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.95988618783793</v>
@@ -32438,7 +32288,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.605596999839418</v>
+        <v>1.613173481736775</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.779610793813294</v>
@@ -32527,7 +32377,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.625361485293778</v>
+        <v>1.62925734954833</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.714104651626336</v>
@@ -32616,7 +32466,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.604693765674159</v>
+        <v>1.613572882824674</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.650298898066412</v>
@@ -32705,7 +32555,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.593356157443644</v>
+        <v>1.606839016492106</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.801055293970912</v>
@@ -32794,7 +32644,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.582056222714223</v>
+        <v>1.593826604926524</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.70200236638963</v>
@@ -32883,7 +32733,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.572919162152004</v>
+        <v>1.581066034213052</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.871950925583025</v>
@@ -32972,7 +32822,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.586627646928533</v>
+        <v>1.592326932672041</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.787386098769591</v>
@@ -33061,7 +32911,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.595327242210777</v>
+        <v>1.594895790812159</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.824432170169945</v>
@@ -33150,7 +33000,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.584742488395131</v>
+        <v>1.585326491128885</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.823005728395387</v>
@@ -33239,7 +33089,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.576171189859107</v>
+        <v>1.579124440806272</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.919591244478775</v>
@@ -33328,7 +33178,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.569633046495799</v>
+        <v>1.57308997532698</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.867566417653785</v>
@@ -33417,7 +33267,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.604211568216351</v>
+        <v>1.604564758941134</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.732727916936587</v>
@@ -33506,7 +33356,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.616118083524771</v>
+        <v>1.616903953908547</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.994587092599827</v>
@@ -33595,7 +33445,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.603128472973957</v>
+        <v>1.605953774979816</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.043434444639323</v>
@@ -33684,7 +33534,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.624048047518137</v>
+        <v>1.628971743143678</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.214684068603834</v>
@@ -33773,7 +33623,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.628441476279623</v>
+        <v>1.635932005695438</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.389178347392956</v>
@@ -33862,7 +33712,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.632183487347332</v>
+        <v>1.643064612011882</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.184104421535358</v>
@@ -33951,7 +33801,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.657788319078635</v>
+        <v>1.662749593082385</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.020818788633458</v>
@@ -34040,7 +33890,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.659890185031271</v>
+        <v>1.658597264026751</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.365134327156468</v>
@@ -34129,7 +33979,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.659260889255382</v>
+        <v>1.662374795691462</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.390984296357559</v>
@@ -34218,7 +34068,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.621537526029408</v>
+        <v>1.631489460516365</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.636059553030125</v>
@@ -34307,7 +34157,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.60239683401354</v>
+        <v>1.619615104885756</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.635401610368389</v>
@@ -34396,7 +34246,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.614152508669787</v>
+        <v>1.63186060774662</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.441824064217454</v>
@@ -34485,7 +34335,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.629298157805931</v>
+        <v>1.649322997373195</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.647301848924116</v>
@@ -34574,7 +34424,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.61999374235582</v>
+        <v>1.645173865040158</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.438098668910561</v>
@@ -34663,7 +34513,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.618118962792628</v>
+        <v>1.646741204106926</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.602725795463127</v>
@@ -34752,7 +34602,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.597845198271886</v>
+        <v>1.626878054008884</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.575747192340327</v>
@@ -34841,7 +34691,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.589489881856124</v>
+        <v>1.618201738618504</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.597866134003893</v>
@@ -34930,7 +34780,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.584304612710277</v>
+        <v>1.6091223689445</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.451207345053189</v>
@@ -35019,7 +34869,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.551474407474148</v>
+        <v>1.576252711144568</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.499189975994278</v>
@@ -35108,7 +34958,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.557998336569201</v>
+        <v>1.583085958727613</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.580127650661557</v>
@@ -35197,7 +35047,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.557321354853118</v>
+        <v>1.58289414616725</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.610515519309366</v>
@@ -35286,7 +35136,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.486536624408965</v>
+        <v>1.511014278531281</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.094549454893514</v>
@@ -35375,7 +35225,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.476648220582321</v>
+        <v>1.504677939818364</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.117851962873348</v>
@@ -35464,7 +35314,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.474312862095098</v>
+        <v>1.500879914383659</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.113723566270941</v>
@@ -35553,7 +35403,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.506756290519503</v>
+        <v>1.529521017244673</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.123693612959605</v>
@@ -35642,7 +35492,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.492958883601494</v>
+        <v>1.514369205751452</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.056769242705128</v>
@@ -35731,7 +35581,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.490660968428911</v>
+        <v>1.511710567516271</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.093530809596066</v>
@@ -35820,7 +35670,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.485306329239669</v>
+        <v>1.505436568099679</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.133001469944032</v>
@@ -35909,7 +35759,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.494380690268959</v>
+        <v>1.511917197899806</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.152456890432432</v>
@@ -35998,7 +35848,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.49600235115504</v>
+        <v>1.511018835975633</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.071148581032665</v>
@@ -36087,7 +35937,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.50490744371141</v>
+        <v>1.51999709741113</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.07190494841757</v>
@@ -36176,7 +36026,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.509254778263306</v>
+        <v>1.524806113706097</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.040462285944319</v>
@@ -36265,7 +36115,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.516763078536385</v>
+        <v>1.53804755830665</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.102049231428709</v>
@@ -36354,7 +36204,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.524652039490559</v>
+        <v>1.54570736085629</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.059798013810829</v>
@@ -36443,7 +36293,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.512452507032825</v>
+        <v>1.531260322708269</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.125132089386135</v>
@@ -36532,7 +36382,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.506092210337485</v>
+        <v>1.522888813951242</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.116900326462906</v>
@@ -36621,7 +36471,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.59287374428737</v>
+        <v>1.59997263147354</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.29755687918258</v>
@@ -36710,7 +36560,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.597881641624302</v>
+        <v>1.60738084753067</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.079053689840826</v>
@@ -36799,7 +36649,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.603491970725873</v>
+        <v>1.611785500610944</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.146817696120104</v>
@@ -36888,7 +36738,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.599496418886079</v>
+        <v>1.608115940165998</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.63913158384654</v>
@@ -36977,7 +36827,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.606094604981744</v>
+        <v>1.616333729169404</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.948460436165338</v>
@@ -37066,7 +36916,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.606707081019626</v>
+        <v>1.617461296441484</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.952299842659931</v>
@@ -37155,7 +37005,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.603926052329783</v>
+        <v>1.614075032103618</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.177725236881607</v>
@@ -37244,7 +37094,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.615024460682633</v>
+        <v>1.620947338176789</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.035681686844892</v>
@@ -37530,7 +37380,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.708726480550186</v>
+        <v>1.740757889843833</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.684728657191297</v>
@@ -37619,7 +37469,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.688579167675629</v>
+        <v>1.721091009332864</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.616029049200584</v>
@@ -37708,7 +37558,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.6797308598593</v>
+        <v>1.709491376704605</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.617840821142164</v>
@@ -37797,7 +37647,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.704818899985675</v>
+        <v>1.726501659182723</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.615292504828</v>
@@ -37886,7 +37736,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.705413190390656</v>
+        <v>1.722550317804847</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.554175056026069</v>
@@ -37975,7 +37825,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.694312007228295</v>
+        <v>1.711882416932782</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.638966051818079</v>
@@ -38064,7 +37914,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.740925141867267</v>
+        <v>1.752360994252884</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.034259852121346</v>
@@ -38153,7 +38003,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.74162805062468</v>
+        <v>1.753905818529167</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.817932142762922</v>
@@ -38242,7 +38092,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.758890913594087</v>
+        <v>1.767354482084419</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.083888246110482</v>
@@ -38331,7 +38181,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.749818939484777</v>
+        <v>1.757094129867359</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.005801959923085</v>
@@ -38420,7 +38270,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.781045793520735</v>
+        <v>1.777547161226328</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.790109510720315</v>
@@ -38509,7 +38359,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.777953064560639</v>
+        <v>1.771544558264813</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.846852138950353</v>
@@ -38598,7 +38448,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.766988426314227</v>
+        <v>1.759256819366855</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.678685831999811</v>
@@ -38687,7 +38537,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.768735145741268</v>
+        <v>1.762387607315905</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.723293428691192</v>
@@ -38776,7 +38626,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.80194287337203</v>
+        <v>1.784342452137549</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.646919789579158</v>
@@ -38865,7 +38715,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.801906303908065</v>
+        <v>1.791375233997366</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.10216161039219</v>
@@ -38954,7 +38804,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.835776064388434</v>
+        <v>1.821773233066024</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.014574492613239</v>
@@ -39043,7 +38893,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.824918012564535</v>
+        <v>1.819473102531459</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.87614835621155</v>
@@ -39132,7 +38982,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.830837662727765</v>
+        <v>1.83060414003628</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.064882933142585</v>
@@ -39221,7 +39071,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.831498174234422</v>
+        <v>1.841291115668772</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.979267327358943</v>
@@ -39310,7 +39160,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.832159434783528</v>
+        <v>1.845995484614196</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.224671312550439</v>
@@ -39399,7 +39249,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.831063472696707</v>
+        <v>1.850267150693633</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.957218847258472</v>
@@ -39488,7 +39338,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.830442548251786</v>
+        <v>1.853032743640492</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.980217146478601</v>
@@ -39577,7 +39427,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.798014475561663</v>
+        <v>1.830063254815715</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.900039808074682</v>
@@ -39666,7 +39516,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.817237194550031</v>
+        <v>1.849703359835726</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.045945332480875</v>
@@ -39755,7 +39605,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.819397588612334</v>
+        <v>1.852991949906495</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.05666871194398</v>
@@ -39844,7 +39694,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.793177141163101</v>
+        <v>1.83006627095928</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.984911576113098</v>
@@ -39933,7 +39783,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.818592672418861</v>
+        <v>1.854243279493934</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.775703755157528</v>
@@ -40022,7 +39872,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.817766730126807</v>
+        <v>1.855472511281739</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.824644236685689</v>
@@ -40111,7 +39961,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.829734576549262</v>
+        <v>1.866980912497592</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.82919949601718</v>
@@ -40200,7 +40050,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.82853936806653</v>
+        <v>1.863535177816535</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.871658168043337</v>
@@ -40289,7 +40139,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.803782199928348</v>
+        <v>1.843414690253977</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.041321345087953</v>
@@ -40378,7 +40228,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.822638854486097</v>
+        <v>1.863566153204031</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.932017153636734</v>
@@ -40467,7 +40317,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.767499131829797</v>
+        <v>1.813264711638987</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.904552005189859</v>
@@ -40556,7 +40406,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.720194451594416</v>
+        <v>1.77414063389478</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.779262308018032</v>
@@ -40645,7 +40495,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.72096698872948</v>
+        <v>1.777132667320654</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.803881398835492</v>
@@ -40734,7 +40584,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.724150259269938</v>
+        <v>1.780388581674509</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.724653579769899</v>
@@ -40823,7 +40673,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.72542264016708</v>
+        <v>1.778695701952873</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.72875740403264</v>
@@ -40912,7 +40762,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.748208504218793</v>
+        <v>1.801703664497981</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.807358886288684</v>
@@ -41001,7 +40851,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.743892320013797</v>
+        <v>1.792732535309399</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.709194357643262</v>
@@ -41090,7 +40940,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.725230732954611</v>
+        <v>1.779593187223411</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.778042185279696</v>
@@ -41179,7 +41029,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.747897965554366</v>
+        <v>1.799861410759287</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.835392933015224</v>
@@ -41268,7 +41118,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.72761034125181</v>
+        <v>1.781050568402115</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.783968829575592</v>
@@ -41357,7 +41207,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.742548864623133</v>
+        <v>1.794388356801687</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.781529253503437</v>
@@ -41446,7 +41296,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.722591604480867</v>
+        <v>1.777509237717142</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.754322918271369</v>
@@ -41535,7 +41385,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.729755608950517</v>
+        <v>1.784661475351679</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.832796825315093</v>
@@ -41624,7 +41474,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.74683638090071</v>
+        <v>1.801047818156974</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.837148695432654</v>
@@ -41713,7 +41563,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.745705439152575</v>
+        <v>1.798314672907584</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.692810983154304</v>
@@ -41802,7 +41652,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.801547134286727</v>
+        <v>1.84978716336611</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.976624579296565</v>
@@ -41891,7 +41741,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.820775568823579</v>
+        <v>1.863258743374844</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.787170465617319</v>
@@ -41980,7 +41830,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.847613824342415</v>
+        <v>1.883665053102401</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.820302872150389</v>
@@ -42069,7 +41919,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.844669503060804</v>
+        <v>1.879790692831566</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.932616794807762</v>
@@ -42158,7 +42008,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.843550117903706</v>
+        <v>1.883126749558753</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.88915305799858</v>
@@ -42247,7 +42097,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.844798584589923</v>
+        <v>1.883492651024181</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.872527917041181</v>
@@ -42336,7 +42186,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.86727573788277</v>
+        <v>1.903954576731869</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.160420705957262</v>
@@ -42425,7 +42275,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.855960705770746</v>
+        <v>1.893900455567143</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.120710837696699</v>
@@ -42514,7 +42364,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.856300262883059</v>
+        <v>1.894104626788923</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.984826134293038</v>
@@ -42603,7 +42453,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.878892749697886</v>
+        <v>1.911118478771705</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.271570319618282</v>
@@ -42692,7 +42542,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.897299267910697</v>
+        <v>1.924183564927805</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.779112143915937</v>
@@ -42781,7 +42631,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.905801116917632</v>
+        <v>1.923579797011979</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.162163718280999</v>
@@ -42870,7 +42720,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.887105745190375</v>
+        <v>1.903411065042502</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.062658000741812</v>
@@ -42959,7 +42809,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.883022108020242</v>
+        <v>1.898086555576063</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.517277417147485</v>
@@ -43048,7 +42898,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.886391058302871</v>
+        <v>1.897349945596974</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.186040357344462</v>
@@ -43137,7 +42987,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.91914320074037</v>
+        <v>1.922127449001912</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.690795406530043</v>
@@ -43226,7 +43076,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.924894104103596</v>
+        <v>1.93025854217794</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.083217836536423</v>
@@ -43315,7 +43165,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.924304920967044</v>
+        <v>1.917207619408279</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.419796687601907</v>
@@ -43404,7 +43254,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.926212922569807</v>
+        <v>1.91325055551393</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.445229502775733</v>
@@ -43493,7 +43343,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.927676842289602</v>
+        <v>1.90744993518742</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.331571400729481</v>
